--- a/Resultados LLM.xlsx
+++ b/Resultados LLM.xlsx
@@ -38,9 +38,9 @@
     <sheet state="visible" name="Claude_p1_json" sheetId="33" r:id="rId36"/>
     <sheet state="visible" name="Claude_p2_json" sheetId="34" r:id="rId37"/>
     <sheet state="visible" name="Claude_p3_json" sheetId="35" r:id="rId38"/>
-    <sheet state="hidden" name="Grok_p1_json" sheetId="36" r:id="rId39"/>
-    <sheet state="hidden" name="Grok_p2_json" sheetId="37" r:id="rId40"/>
-    <sheet state="hidden" name="Grok_p3_json" sheetId="38" r:id="rId41"/>
+    <sheet state="visible" name="Grok_p1_json" sheetId="36" r:id="rId39"/>
+    <sheet state="visible" name="Grok_p2_json" sheetId="37" r:id="rId40"/>
+    <sheet state="visible" name="Grok_p3_json" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18641,231 +18641,567 @@
         <f>Transcripciones!A2</f>
         <v>3004</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
         <f>Transcripciones!A3</f>
         <v>3010</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
         <f>Transcripciones!A4</f>
         <v>3012</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="B4" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
         <f>Transcripciones!A5</f>
         <v>3013</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
         <f>Transcripciones!A6</f>
         <v>3018</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
         <f>Transcripciones!A7</f>
         <v>3020</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="3">
         <f>Transcripciones!A8</f>
         <v>3022</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="3">
         <f>Transcripciones!A9</f>
         <v>3024</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <f>Transcripciones!A10</f>
         <v>3248</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="3">
         <f>Transcripciones!A11</f>
         <v>3282</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <f>Transcripciones!A12</f>
         <v>3296</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="3">
         <f>Transcripciones!A13</f>
         <v>3299</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="3">
         <f>Transcripciones!A14</f>
         <v>3302</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="3">
         <f>Transcripciones!A15</f>
         <v>3305</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="3">
         <f>Transcripciones!A16</f>
         <v>3310</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="3">
         <f>Transcripciones!A17</f>
         <v>3313</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="3">
         <f>Transcripciones!A18</f>
         <v>3316</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="3">
         <f>Transcripciones!A19</f>
         <v>3318</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="3">
         <f>Transcripciones!A20</f>
         <v>3324</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="3">
         <f>Transcripciones!A21</f>
         <v>3325</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="3">
         <f>Transcripciones!A22</f>
         <v>3501</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="B22" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="7"/>
